--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H2">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I2">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J2">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>278.7444937032426</v>
+        <v>311.360278129693</v>
       </c>
       <c r="R2">
-        <v>278.7444937032426</v>
+        <v>2802.242503167237</v>
       </c>
       <c r="S2">
-        <v>0.07242065759206637</v>
+        <v>0.07142117422927627</v>
       </c>
       <c r="T2">
-        <v>0.07242065759206637</v>
+        <v>0.07142117422927628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H3">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I3">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J3">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>155.7755324916571</v>
+        <v>166.234681361905</v>
       </c>
       <c r="R3">
-        <v>155.7755324916571</v>
+        <v>1496.112132257145</v>
       </c>
       <c r="S3">
-        <v>0.0404720694207165</v>
+        <v>0.03813163391237541</v>
       </c>
       <c r="T3">
-        <v>0.0404720694207165</v>
+        <v>0.03813163391237542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H4">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I4">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J4">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>349.7994044993958</v>
+        <v>373.952500109344</v>
       </c>
       <c r="R4">
-        <v>349.7994044993958</v>
+        <v>3365.572500984096</v>
       </c>
       <c r="S4">
-        <v>0.09088144688565294</v>
+        <v>0.08577885022526217</v>
       </c>
       <c r="T4">
-        <v>0.09088144688565294</v>
+        <v>0.08577885022526219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H5">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I5">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J5">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>195.7571635918088</v>
+        <v>229.830105007698</v>
       </c>
       <c r="R5">
-        <v>195.7571635918088</v>
+        <v>2068.470945069282</v>
       </c>
       <c r="S5">
-        <v>0.05085970426655137</v>
+        <v>0.05271942866793791</v>
       </c>
       <c r="T5">
-        <v>0.05085970426655137</v>
+        <v>0.05271942866793792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H6">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I6">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J6">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>24.83363898120379</v>
+        <v>28.46132049436</v>
       </c>
       <c r="R6">
-        <v>24.83363898120379</v>
+        <v>256.15188444924</v>
       </c>
       <c r="S6">
-        <v>0.006452032259110525</v>
+        <v>0.00652858142995442</v>
       </c>
       <c r="T6">
-        <v>0.006452032259110525</v>
+        <v>0.00652858142995442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H7">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I7">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J7">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>551.3871502682136</v>
+        <v>589.2754155666519</v>
       </c>
       <c r="R7">
-        <v>551.3871502682136</v>
+        <v>5303.478740099867</v>
       </c>
       <c r="S7">
-        <v>0.1432559957677651</v>
+        <v>0.1351705566844476</v>
       </c>
       <c r="T7">
-        <v>0.1432559957677651</v>
+        <v>0.1351705566844476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H8">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I8">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J8">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>308.1410714198051</v>
+        <v>314.6130634567439</v>
       </c>
       <c r="R8">
-        <v>308.1410714198051</v>
+        <v>2831.517571110695</v>
       </c>
       <c r="S8">
-        <v>0.08005818779367188</v>
+        <v>0.07216731226900711</v>
       </c>
       <c r="T8">
-        <v>0.08005818779367188</v>
+        <v>0.07216731226900711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H9">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I9">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J9">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>691.9415492303098</v>
+        <v>707.7364403314594</v>
       </c>
       <c r="R9">
-        <v>691.9415492303098</v>
+        <v>6369.627962983135</v>
       </c>
       <c r="S9">
-        <v>0.1797734597185669</v>
+        <v>0.1623436615516708</v>
       </c>
       <c r="T9">
-        <v>0.1797734597185669</v>
+        <v>0.1623436615516708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H10">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I10">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J10">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>387.2291184786204</v>
+        <v>434.9727314340513</v>
       </c>
       <c r="R10">
-        <v>387.2291184786204</v>
+        <v>3914.754582906462</v>
       </c>
       <c r="S10">
-        <v>0.1006060676802946</v>
+        <v>0.09977593617062266</v>
       </c>
       <c r="T10">
-        <v>0.1006060676802946</v>
+        <v>0.09977593617062269</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H11">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I11">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J11">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>49.12365889893916</v>
+        <v>53.86543383964889</v>
       </c>
       <c r="R11">
-        <v>49.12365889893916</v>
+        <v>484.7889045568399</v>
       </c>
       <c r="S11">
-        <v>0.01276282675049718</v>
+        <v>0.01235588739291479</v>
       </c>
       <c r="T11">
-        <v>0.01276282675049718</v>
+        <v>0.01235588739291479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H12">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I12">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J12">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>95.28099436191287</v>
+        <v>102.41023503616</v>
       </c>
       <c r="R12">
-        <v>95.28099436191287</v>
+        <v>921.69211532544</v>
       </c>
       <c r="S12">
-        <v>0.02475497246974112</v>
+        <v>0.02349130493881451</v>
       </c>
       <c r="T12">
-        <v>0.02475497246974112</v>
+        <v>0.02349130493881451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H13">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I13">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J13">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>53.24750073399886</v>
+        <v>54.6766366336</v>
       </c>
       <c r="R13">
-        <v>53.24750073399886</v>
+        <v>492.0897297024</v>
       </c>
       <c r="S13">
-        <v>0.01383424284748616</v>
+        <v>0.01254196461647741</v>
       </c>
       <c r="T13">
-        <v>0.01383424284748616</v>
+        <v>0.01254196461647742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H14">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I14">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J14">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>119.5691245596063</v>
+        <v>122.99758870528</v>
       </c>
       <c r="R14">
-        <v>119.5691245596063</v>
+        <v>1106.97829834752</v>
       </c>
       <c r="S14">
-        <v>0.03106527599262009</v>
+        <v>0.02821372162649965</v>
       </c>
       <c r="T14">
-        <v>0.03106527599262009</v>
+        <v>0.02821372162649965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H15">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I15">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J15">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>66.91410098436759</v>
+        <v>75.59395570176</v>
       </c>
       <c r="R15">
-        <v>66.91410098436759</v>
+        <v>680.34560131584</v>
       </c>
       <c r="S15">
-        <v>0.01738496474347922</v>
+        <v>0.01734007020191158</v>
       </c>
       <c r="T15">
-        <v>0.01738496474347922</v>
+        <v>0.01734007020191159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H16">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I16">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J16">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N16">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q16">
-        <v>8.488683612430163</v>
+        <v>9.3612792832</v>
       </c>
       <c r="R16">
-        <v>8.488683612430163</v>
+        <v>84.25151354879999</v>
       </c>
       <c r="S16">
-        <v>0.0022054464328098</v>
+        <v>0.002147330939933989</v>
       </c>
       <c r="T16">
-        <v>0.0022054464328098</v>
+        <v>0.002147330939933989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H17">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I17">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J17">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N17">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q17">
-        <v>142.2225061693003</v>
+        <v>70.40666335243321</v>
       </c>
       <c r="R17">
-        <v>142.2225061693003</v>
+        <v>633.659970171899</v>
       </c>
       <c r="S17">
-        <v>0.03695085518761092</v>
+        <v>0.01615018653118484</v>
       </c>
       <c r="T17">
-        <v>0.03695085518761092</v>
+        <v>0.01615018653118484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H18">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I18">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J18">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N18">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q18">
-        <v>79.48062520082348</v>
+        <v>37.58998841615722</v>
       </c>
       <c r="R18">
-        <v>79.48062520082348</v>
+        <v>338.309895745415</v>
       </c>
       <c r="S18">
-        <v>0.02064987568507884</v>
+        <v>0.008622554964537116</v>
       </c>
       <c r="T18">
-        <v>0.02064987568507884</v>
+        <v>0.008622554964537118</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H19">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I19">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J19">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N19">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q19">
-        <v>178.4765227233407</v>
+        <v>84.56039396917687</v>
       </c>
       <c r="R19">
-        <v>178.4765227233407</v>
+        <v>761.0435457225918</v>
       </c>
       <c r="S19">
-        <v>0.04637001782044296</v>
+        <v>0.0193968307930827</v>
       </c>
       <c r="T19">
-        <v>0.04637001782044296</v>
+        <v>0.0193968307930827</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H20">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I20">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J20">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N20">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q20">
-        <v>99.88026682335456</v>
+        <v>51.97056904217932</v>
       </c>
       <c r="R20">
-        <v>99.88026682335456</v>
+        <v>467.7351213796139</v>
       </c>
       <c r="S20">
-        <v>0.02594991028421612</v>
+        <v>0.01192123506778864</v>
       </c>
       <c r="T20">
-        <v>0.02594991028421612</v>
+        <v>0.01192123506778865</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.6916763333333332</v>
+      </c>
+      <c r="H21">
+        <v>2.075029</v>
+      </c>
+      <c r="I21">
+        <v>0.057567089551833</v>
+      </c>
+      <c r="J21">
+        <v>0.05756708955183301</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.91412</v>
+      </c>
+      <c r="O21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q21">
+        <v>6.435845389942221</v>
+      </c>
+      <c r="R21">
+        <v>57.92260850947999</v>
+      </c>
+      <c r="S21">
+        <v>0.001476282195239704</v>
+      </c>
+      <c r="T21">
+        <v>0.001476282195239704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.469517</v>
+      </c>
+      <c r="H22">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J22">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N22">
+        <v>305.374031</v>
+      </c>
+      <c r="O22">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P22">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q22">
+        <v>149.584109971009</v>
+      </c>
+      <c r="R22">
+        <v>1346.256989739081</v>
+      </c>
+      <c r="S22">
+        <v>0.03431225345874272</v>
+      </c>
+      <c r="T22">
+        <v>0.03431225345874273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.469517</v>
+      </c>
+      <c r="H23">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J23">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N23">
+        <v>163.038635</v>
+      </c>
+      <c r="O23">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P23">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q23">
+        <v>79.86268192976499</v>
+      </c>
+      <c r="R23">
+        <v>718.7641373678848</v>
+      </c>
+      <c r="S23">
+        <v>0.01831924918228375</v>
+      </c>
+      <c r="T23">
+        <v>0.01831924918228375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.469517</v>
+      </c>
+      <c r="H24">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J24">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N24">
+        <v>366.762848</v>
+      </c>
+      <c r="O24">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P24">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q24">
+        <v>179.6547467014719</v>
+      </c>
+      <c r="R24">
+        <v>1616.892720313248</v>
+      </c>
+      <c r="S24">
+        <v>0.041209986843401</v>
+      </c>
+      <c r="T24">
+        <v>0.04120998684340101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.46594768303509</v>
-      </c>
-      <c r="H21">
-        <v>1.46594768303509</v>
-      </c>
-      <c r="I21">
-        <v>0.1332126493789702</v>
-      </c>
-      <c r="J21">
-        <v>0.1332126493789702</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="N21">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="O21">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="P21">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="Q21">
-        <v>12.67075207939559</v>
-      </c>
-      <c r="R21">
-        <v>12.67075207939559</v>
-      </c>
-      <c r="S21">
-        <v>0.003291990401621327</v>
-      </c>
-      <c r="T21">
-        <v>0.003291990401621327</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.469517</v>
+      </c>
+      <c r="H25">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J25">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N25">
+        <v>225.411366</v>
+      </c>
+      <c r="O25">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P25">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q25">
+        <v>110.415278110074</v>
+      </c>
+      <c r="R25">
+        <v>993.7375029906658</v>
+      </c>
+      <c r="S25">
+        <v>0.0253275365208557</v>
+      </c>
+      <c r="T25">
+        <v>0.02532753652085571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.469517</v>
+      </c>
+      <c r="H26">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J26">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N26">
+        <v>27.91412</v>
+      </c>
+      <c r="O26">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P26">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q26">
+        <v>13.67342462668</v>
+      </c>
+      <c r="R26">
+        <v>123.06082164012</v>
+      </c>
+      <c r="S26">
+        <v>0.003136469585777447</v>
+      </c>
+      <c r="T26">
+        <v>0.003136469585777448</v>
       </c>
     </row>
   </sheetData>
